--- a/Excel Chllenge Solution.xlsx
+++ b/Excel Chllenge Solution.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajan Verma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AB73171\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84EC304-A906-4673-846F-5060F4AAEDFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" xr2:uid="{F4626E50-1696-4061-98E4-2121CAA3C962}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10065" xr2:uid="{F4626E50-1696-4061-98E4-2121CAA3C962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -317,9 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,18 +357,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -688,57 +688,57 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>49</v>
       </c>
@@ -769,15 +769,15 @@
       <c r="K8" s="4">
         <v>51</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>400</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <f t="array" aca="1" ref="O8" ca="1">SUM(OFFSET($B8,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M8,0)-1))</f>
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>13</v>
       </c>
@@ -808,15 +808,15 @@
       <c r="K9" s="7">
         <v>25</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>353</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <f t="array" aca="1" ref="O9" ca="1">SUM(OFFSET($B9,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M9,0)-1))</f>
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>85</v>
       </c>
@@ -847,15 +847,15 @@
       <c r="K10" s="7">
         <v>41</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>355</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <f t="array" aca="1" ref="O10" ca="1">SUM(OFFSET($B10,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M10,0)-1))</f>
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>99</v>
       </c>
@@ -886,15 +886,15 @@
       <c r="K11" s="7">
         <v>31</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>335</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <f t="array" aca="1" ref="O11" ca="1">SUM(OFFSET($B11,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M11,0)-1))</f>
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>61</v>
       </c>
@@ -925,15 +925,15 @@
       <c r="K12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>305</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <f t="array" aca="1" ref="O12" ca="1">SUM(OFFSET($B12,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M12,0)-1))</f>
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>39</v>
       </c>
@@ -964,15 +964,15 @@
       <c r="K13" s="7">
         <v>100</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>387</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f t="array" aca="1" ref="O13" ca="1">SUM(OFFSET($B13,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M13,0)-1))</f>
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>83</v>
       </c>
@@ -1003,15 +1003,15 @@
       <c r="K14" s="7">
         <v>26</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>303</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <f t="array" aca="1" ref="O14" ca="1">SUM(OFFSET($B14,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M14,0)-1))</f>
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>70</v>
       </c>
@@ -1042,15 +1042,15 @@
       <c r="K15" s="7">
         <v>63</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>326</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <f t="array" aca="1" ref="O15" ca="1">SUM(OFFSET($B15,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M15,0)-1))</f>
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>78</v>
       </c>
@@ -1081,15 +1081,15 @@
       <c r="K16" s="7">
         <v>75</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>389</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <f t="array" aca="1" ref="O16" ca="1">SUM(OFFSET($B16,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M16,0)-1))</f>
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>60</v>
       </c>
@@ -1120,58 +1120,58 @@
       <c r="K17" s="10">
         <v>15</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <v>388</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="14">
         <f t="array" aca="1" ref="O17" ca="1">SUM(OFFSET($B17,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M17,0)-1))</f>
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <f t="array" aca="1" ref="B19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*B8:B17)</f>
         <v>637</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <f t="array" aca="1" ref="C19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*C8:C17)</f>
         <v>601</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <f t="array" aca="1" ref="D19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*D8:D17)</f>
         <v>641</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f t="array" aca="1" ref="E19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*E8:E17)</f>
         <v>456</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <f t="array" aca="1" ref="F19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*F8:F17)</f>
         <v>514</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <f t="array" aca="1" ref="G19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*G8:G17)</f>
         <v>181</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <f t="array" aca="1" ref="H19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*H8:H17)</f>
         <v>99</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <f t="array" aca="1" ref="I19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*I8:I17)</f>
         <v>113</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <f t="array" aca="1" ref="J19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*J8:J17)</f>
         <v>70</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <f t="array" aca="1" ref="K19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*K8:K17)</f>
         <v>0</v>
       </c>

--- a/Excel Chllenge Solution.xlsx
+++ b/Excel Chllenge Solution.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajan Verma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SauravG\Documents\Git_Excel\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" xr2:uid="{F4626E50-1696-4061-98E4-2121CAA3C962}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,8 +42,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +79,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -305,66 +312,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -681,134 +682,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C935E21D-8309-4375-B4D6-ECD9D6A6A7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M7" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>49</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>98</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>72</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>29</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>71</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>50</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>24</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="7">
         <v>51</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="8">
         <v>400</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="9">
         <f t="array" aca="1" ref="O8" ca="1">SUM(OFFSET($B8,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M8,0)-1))</f>
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>74</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>40</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>39</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>19</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="11">
         <v>12</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="11">
         <v>63</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="11">
         <v>70</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="12">
         <v>25</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <v>353</v>
       </c>
       <c r="O9" s="14">
@@ -816,38 +818,38 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>85</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <v>58</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11">
         <v>23</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="11">
         <v>48</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="11">
         <v>87</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="11">
         <v>56</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="11">
         <v>52</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="11">
         <v>85</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="11">
         <v>62</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="12">
         <v>41</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <v>355</v>
       </c>
       <c r="O10" s="14">
@@ -855,38 +857,38 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>99</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>44</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <v>96</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="11">
         <v>15</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <v>59</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="11">
         <v>15</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="11">
         <v>73</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="11">
         <v>26</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="11">
         <v>38</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="12">
         <v>31</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="13">
         <v>335</v>
       </c>
       <c r="O11" s="14">
@@ -894,38 +896,38 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>61</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
         <v>94</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="11">
         <v>12</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="11">
         <v>52</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="11">
         <v>54</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="11">
         <v>32</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="11">
         <v>62</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="11">
         <v>94</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="11">
         <v>54</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="12">
         <v>10</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="13">
         <v>305</v>
       </c>
       <c r="O12" s="14">
@@ -933,38 +935,38 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>39</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="11">
         <v>21</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>97</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="11">
         <v>53</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>80</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>33</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="11">
         <v>16</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="11">
         <v>84</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="11">
         <v>82</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="12">
         <v>100</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="13">
         <v>387</v>
       </c>
       <c r="O13" s="14">
@@ -972,38 +974,38 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>83</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="11">
         <v>99</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="11">
         <v>73</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="11">
         <v>39</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="11">
         <v>12</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="11">
         <v>63</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="11">
         <v>43</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="11">
         <v>44</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="11">
         <v>11</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="12">
         <v>26</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="13">
         <v>303</v>
       </c>
       <c r="O14" s="14">
@@ -1011,38 +1013,38 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>70</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="11">
         <v>81</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="11">
         <v>34</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="11">
         <v>62</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="11">
         <v>63</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>71</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="11">
         <v>61</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="11">
         <v>96</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="11">
         <v>25</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="12">
         <v>63</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="13">
         <v>326</v>
       </c>
       <c r="O15" s="14">
@@ -1050,38 +1052,38 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
         <v>78</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11">
         <v>48</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="11">
         <v>62</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="11">
         <v>63</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="11">
         <v>71</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="11">
         <v>71</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="11">
         <v>89</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="11">
         <v>90</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="11">
         <v>63</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="12">
         <v>75</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="13">
         <v>389</v>
       </c>
       <c r="O16" s="14">
@@ -1089,89 +1091,89 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
         <v>60</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="16">
         <v>40</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="16">
         <v>98</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="16">
         <v>67</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="16">
         <v>47</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="16">
         <v>53</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="16">
         <v>26</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="16">
         <v>50</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="16">
         <v>30</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="17">
         <v>15</v>
       </c>
       <c r="M17" s="18">
         <v>388</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="19">
         <f t="array" aca="1" ref="O17" ca="1">SUM(OFFSET($B17,,,,MATCH(FALSE,SUMIF(INDIRECT(ADDRESS(ROW(),2)&amp;":"&amp;ADDRESS(ROW(),COLUMN($B$8:$K$8))),"&gt;0")&lt;=M17,0)-1))</f>
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+    <row r="18" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="21">
         <f t="array" aca="1" ref="B19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*B8:B17)</f>
         <v>637</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="22">
         <f t="array" aca="1" ref="C19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*C8:C17)</f>
         <v>601</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <f t="array" aca="1" ref="D19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*D8:D17)</f>
         <v>641</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="22">
         <f t="array" aca="1" ref="E19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*E8:E17)</f>
         <v>456</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="22">
         <f t="array" aca="1" ref="F19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*F8:F17)</f>
         <v>514</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="22">
         <f t="array" aca="1" ref="G19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*G8:G17)</f>
         <v>181</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="22">
         <f t="array" aca="1" ref="H19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*H8:H17)</f>
         <v>99</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="22">
         <f t="array" aca="1" ref="I19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*I8:I17)</f>
         <v>113</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="22">
         <f t="array" aca="1" ref="J19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*J8:J17)</f>
         <v>70</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="23">
         <f t="array" aca="1" ref="K19" ca="1">SUM(--INDEX(SUMIF(INDIRECT(ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$B$17))&amp;":"&amp;ADDRESS(ROW($B$8:$B$17),COLUMN($B$8:$K$8))),"&gt;0")&lt;=$M$8:$M$17,,COLUMN()-1)*K8:K17)</f>
         <v>0</v>
       </c>
